--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1311.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1311.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020448804041075</v>
+        <v>1.07891583442688</v>
       </c>
       <c r="B1">
-        <v>2.524745634325105</v>
+        <v>2.119692325592041</v>
       </c>
       <c r="C1">
-        <v>5.382394259178891</v>
+        <v>9.061097145080566</v>
       </c>
       <c r="D1">
-        <v>2.203258196535546</v>
+        <v>1.033445239067078</v>
       </c>
       <c r="E1">
-        <v>1.248511139179144</v>
+        <v>0.9784101247787476</v>
       </c>
     </row>
   </sheetData>
